--- a/ProbableCasesOverTimeByCounty/2021-01-23.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-01-23.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/22/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 01/23/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Probable 2021-01-22</t>
+  </si>
+  <si>
+    <t>Probable 2021-01-23</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1231,6 +1234,7 @@
     <col min="82" max="82" width="12.0" customWidth="true"/>
     <col min="83" max="83" width="12.0" customWidth="true"/>
     <col min="84" max="84" width="12.0" customWidth="true"/>
+    <col min="85" max="85" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1496,10 +1500,13 @@
       <c r="CF3" t="s" s="10">
         <v>85</v>
       </c>
+      <c r="CG3" t="s" s="10">
+        <v>86</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1749,11 +1756,14 @@
       </c>
       <c r="CF4" t="n">
         <v>1118.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1128.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2002,12 +2012,15 @@
         <v>0.0</v>
       </c>
       <c r="CF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2256,12 +2269,15 @@
         <v>2636.0</v>
       </c>
       <c r="CF6" t="n">
+        <v>2688.0</v>
+      </c>
+      <c r="CG6" t="n">
         <v>2688.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2511,11 +2527,14 @@
       </c>
       <c r="CF7" t="n">
         <v>237.0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>239.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -2765,11 +2784,14 @@
       </c>
       <c r="CF8" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3018,12 +3040,15 @@
         <v>39.0</v>
       </c>
       <c r="CF9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CG9" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3272,12 +3297,15 @@
         <v>911.0</v>
       </c>
       <c r="CF10" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="CG10" t="n">
         <v>925.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -3527,11 +3555,14 @@
       </c>
       <c r="CF11" t="n">
         <v>177.0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -3781,11 +3812,14 @@
       </c>
       <c r="CF12" t="n">
         <v>196.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -4035,11 +4069,14 @@
       </c>
       <c r="CF13" t="n">
         <v>192.0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -4289,11 +4326,14 @@
       </c>
       <c r="CF14" t="n">
         <v>1152.0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>1192.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -4543,11 +4583,14 @@
       </c>
       <c r="CF15" t="n">
         <v>171.0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -4797,11 +4840,14 @@
       </c>
       <c r="CF16" t="n">
         <v>387.0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>390.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5050,12 +5096,15 @@
         <v>0.0</v>
       </c>
       <c r="CF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -5305,11 +5354,14 @@
       </c>
       <c r="CF18" t="n">
         <v>25908.0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>26101.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -5558,12 +5610,15 @@
         <v>54.0</v>
       </c>
       <c r="CF19" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CG19" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -5812,12 +5867,15 @@
         <v>6.0</v>
       </c>
       <c r="CF20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CG20" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -6067,11 +6125,14 @@
       </c>
       <c r="CF21" t="n">
         <v>190.0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -6321,11 +6382,14 @@
       </c>
       <c r="CF22" t="n">
         <v>1400.0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>1445.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -6575,11 +6639,14 @@
       </c>
       <c r="CF23" t="n">
         <v>3021.0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>3142.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -6828,12 +6895,15 @@
         <v>2830.0</v>
       </c>
       <c r="CF24" t="n">
+        <v>2874.0</v>
+      </c>
+      <c r="CG24" t="n">
         <v>2874.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -7083,11 +7153,14 @@
       </c>
       <c r="CF25" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -7336,12 +7409,15 @@
         <v>50.0</v>
       </c>
       <c r="CF26" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CG26" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -7591,11 +7667,14 @@
       </c>
       <c r="CF27" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -7845,11 +7924,14 @@
       </c>
       <c r="CF28" t="n">
         <v>1854.0</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>1868.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -8098,12 +8180,15 @@
         <v>189.0</v>
       </c>
       <c r="CF29" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="CG29" t="n">
         <v>190.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -8353,11 +8438,14 @@
       </c>
       <c r="CF30" t="n">
         <v>191.0</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>193.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -8606,12 +8694,15 @@
         <v>179.0</v>
       </c>
       <c r="CF31" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="CG31" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -8861,11 +8952,14 @@
       </c>
       <c r="CF32" t="n">
         <v>135.0</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -9115,11 +9209,14 @@
       </c>
       <c r="CF33" t="n">
         <v>479.0</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>480.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -9368,12 +9465,15 @@
         <v>0.0</v>
       </c>
       <c r="CF34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -9622,12 +9722,15 @@
         <v>283.0</v>
       </c>
       <c r="CF35" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="CG35" t="n">
         <v>301.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -9877,11 +9980,14 @@
       </c>
       <c r="CF36" t="n">
         <v>137.0</v>
+      </c>
+      <c r="CG36" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -10131,11 +10237,14 @@
       </c>
       <c r="CF37" t="n">
         <v>503.0</v>
+      </c>
+      <c r="CG37" t="n">
+        <v>512.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -10385,11 +10494,14 @@
       </c>
       <c r="CF38" t="n">
         <v>240.0</v>
+      </c>
+      <c r="CG38" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -10638,12 +10750,15 @@
         <v>0.0</v>
       </c>
       <c r="CF39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -10893,11 +11008,14 @@
       </c>
       <c r="CF40" t="n">
         <v>1482.0</v>
+      </c>
+      <c r="CG40" t="n">
+        <v>1507.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -11146,12 +11264,15 @@
         <v>17.0</v>
       </c>
       <c r="CF41" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CG41" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -11401,11 +11522,14 @@
       </c>
       <c r="CF42" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CG42" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -11655,11 +11779,14 @@
       </c>
       <c r="CF43" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CG43" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -11908,12 +12035,15 @@
         <v>203.0</v>
       </c>
       <c r="CF44" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CG44" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -12163,11 +12293,14 @@
       </c>
       <c r="CF45" t="n">
         <v>168.0</v>
+      </c>
+      <c r="CG45" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -12417,11 +12550,14 @@
       </c>
       <c r="CF46" t="n">
         <v>9208.0</v>
+      </c>
+      <c r="CG46" t="n">
+        <v>9331.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -12671,11 +12807,14 @@
       </c>
       <c r="CF47" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CG47" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -12924,12 +13063,15 @@
         <v>175.0</v>
       </c>
       <c r="CF48" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="CG48" t="n">
         <v>176.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -13179,11 +13321,14 @@
       </c>
       <c r="CF49" t="n">
         <v>3339.0</v>
+      </c>
+      <c r="CG49" t="n">
+        <v>3419.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -13432,12 +13577,15 @@
         <v>204.0</v>
       </c>
       <c r="CF50" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="CG50" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -13687,11 +13835,14 @@
       </c>
       <c r="CF51" t="n">
         <v>105.0</v>
+      </c>
+      <c r="CG51" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -13941,11 +14092,14 @@
       </c>
       <c r="CF52" t="n">
         <v>340.0</v>
+      </c>
+      <c r="CG52" t="n">
+        <v>349.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -14195,11 +14349,14 @@
       </c>
       <c r="CF53" t="n">
         <v>128.0</v>
+      </c>
+      <c r="CG53" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -14448,12 +14605,15 @@
         <v>45.0</v>
       </c>
       <c r="CF54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CG54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -14703,11 +14863,14 @@
       </c>
       <c r="CF55" t="n">
         <v>305.0</v>
+      </c>
+      <c r="CG55" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -14957,11 +15120,14 @@
       </c>
       <c r="CF56" t="n">
         <v>267.0</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -15210,12 +15376,15 @@
         <v>128.0</v>
       </c>
       <c r="CF57" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CG57" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -15464,12 +15633,15 @@
         <v>18.0</v>
       </c>
       <c r="CF58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CG58" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -15718,12 +15890,15 @@
         <v>36.0</v>
       </c>
       <c r="CF59" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CG59" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -15973,11 +16148,14 @@
       </c>
       <c r="CF60" t="n">
         <v>28061.0</v>
+      </c>
+      <c r="CG60" t="n">
+        <v>28283.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -16226,12 +16404,15 @@
         <v>0.0</v>
       </c>
       <c r="CF61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -16481,11 +16662,14 @@
       </c>
       <c r="CF62" t="n">
         <v>590.0</v>
+      </c>
+      <c r="CG62" t="n">
+        <v>594.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -16735,11 +16919,14 @@
       </c>
       <c r="CF63" t="n">
         <v>99.0</v>
+      </c>
+      <c r="CG63" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -16989,11 +17176,14 @@
       </c>
       <c r="CF64" t="n">
         <v>9598.0</v>
+      </c>
+      <c r="CG64" t="n">
+        <v>9782.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -17242,12 +17432,15 @@
         <v>0.0</v>
       </c>
       <c r="CF65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -17496,12 +17689,15 @@
         <v>46.0</v>
       </c>
       <c r="CF66" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CG66" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -17751,11 +17947,14 @@
       </c>
       <c r="CF67" t="n">
         <v>85.0</v>
+      </c>
+      <c r="CG67" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -18005,11 +18204,14 @@
       </c>
       <c r="CF68" t="n">
         <v>157.0</v>
+      </c>
+      <c r="CG68" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -18259,11 +18461,14 @@
       </c>
       <c r="CF69" t="n">
         <v>93.0</v>
+      </c>
+      <c r="CG69" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -18513,11 +18718,14 @@
       </c>
       <c r="CF70" t="n">
         <v>277.0</v>
+      </c>
+      <c r="CG70" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -18767,11 +18975,14 @@
       </c>
       <c r="CF71" t="n">
         <v>6160.0</v>
+      </c>
+      <c r="CG71" t="n">
+        <v>6333.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -19020,12 +19231,15 @@
         <v>26.0</v>
       </c>
       <c r="CF72" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CG72" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -19275,11 +19489,14 @@
       </c>
       <c r="CF73" t="n">
         <v>2090.0</v>
+      </c>
+      <c r="CG73" t="n">
+        <v>2100.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -19528,12 +19745,15 @@
         <v>0.0</v>
       </c>
       <c r="CF74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -19783,11 +20003,14 @@
       </c>
       <c r="CF75" t="n">
         <v>1139.0</v>
+      </c>
+      <c r="CG75" t="n">
+        <v>1147.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -20037,11 +20260,14 @@
       </c>
       <c r="CF76" t="n">
         <v>65.0</v>
+      </c>
+      <c r="CG76" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -20291,11 +20517,14 @@
       </c>
       <c r="CF77" t="n">
         <v>421.0</v>
+      </c>
+      <c r="CG77" t="n">
+        <v>431.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -20545,11 +20774,14 @@
       </c>
       <c r="CF78" t="n">
         <v>665.0</v>
+      </c>
+      <c r="CG78" t="n">
+        <v>671.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -20798,12 +21030,15 @@
         <v>0.0</v>
       </c>
       <c r="CF79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -21053,11 +21288,14 @@
       </c>
       <c r="CF80" t="n">
         <v>379.0</v>
+      </c>
+      <c r="CG80" t="n">
+        <v>381.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -21306,12 +21544,15 @@
         <v>31.0</v>
       </c>
       <c r="CF81" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CG81" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -21561,11 +21802,14 @@
       </c>
       <c r="CF82" t="n">
         <v>5316.0</v>
+      </c>
+      <c r="CG82" t="n">
+        <v>5433.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -21815,11 +22059,14 @@
       </c>
       <c r="CF83" t="n">
         <v>170.0</v>
+      </c>
+      <c r="CG83" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -22069,11 +22316,14 @@
       </c>
       <c r="CF84" t="n">
         <v>320.0</v>
+      </c>
+      <c r="CG84" t="n">
+        <v>322.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -22323,11 +22573,14 @@
       </c>
       <c r="CF85" t="n">
         <v>400.0</v>
+      </c>
+      <c r="CG85" t="n">
+        <v>403.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -22576,12 +22829,15 @@
         <v>0.0</v>
       </c>
       <c r="CF86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -22831,11 +23087,14 @@
       </c>
       <c r="CF87" t="n">
         <v>3402.0</v>
+      </c>
+      <c r="CG87" t="n">
+        <v>3498.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -23084,12 +23343,15 @@
         <v>87.0</v>
       </c>
       <c r="CF88" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CG88" t="n">
         <v>91.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -23339,11 +23601,14 @@
       </c>
       <c r="CF89" t="n">
         <v>527.0</v>
+      </c>
+      <c r="CG89" t="n">
+        <v>536.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -23592,12 +23857,15 @@
         <v>53.0</v>
       </c>
       <c r="CF90" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CG90" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -23846,12 +24114,15 @@
         <v>79.0</v>
       </c>
       <c r="CF91" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CG91" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -24101,11 +24372,14 @@
       </c>
       <c r="CF92" t="n">
         <v>165.0</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -24355,11 +24629,14 @@
       </c>
       <c r="CF93" t="n">
         <v>249.0</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -24608,12 +24885,15 @@
         <v>0.0</v>
       </c>
       <c r="CF94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -24863,11 +25143,14 @@
       </c>
       <c r="CF95" t="n">
         <v>3805.0</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>3922.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -25116,12 +25399,15 @@
         <v>213.0</v>
       </c>
       <c r="CF96" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="CG96" t="n">
         <v>213.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -25371,11 +25657,14 @@
       </c>
       <c r="CF97" t="n">
         <v>1831.0</v>
+      </c>
+      <c r="CG97" t="n">
+        <v>1896.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -25624,12 +25913,15 @@
         <v>0.0</v>
       </c>
       <c r="CF98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -25879,11 +26171,14 @@
       </c>
       <c r="CF99" t="n">
         <v>78.0</v>
+      </c>
+      <c r="CG99" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -26132,12 +26427,15 @@
         <v>39.0</v>
       </c>
       <c r="CF100" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CG100" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -26386,12 +26684,15 @@
         <v>356.0</v>
       </c>
       <c r="CF101" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="CG101" t="n">
         <v>362.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -26640,12 +26941,15 @@
         <v>54.0</v>
       </c>
       <c r="CF102" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CG102" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -26895,11 +27199,14 @@
       </c>
       <c r="CF103" t="n">
         <v>1936.0</v>
+      </c>
+      <c r="CG103" t="n">
+        <v>1973.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -27148,12 +27455,15 @@
         <v>0.0</v>
       </c>
       <c r="CF104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -27403,11 +27713,14 @@
       </c>
       <c r="CF105" t="n">
         <v>1716.0</v>
+      </c>
+      <c r="CG105" t="n">
+        <v>1754.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -27656,12 +27969,15 @@
         <v>26.0</v>
       </c>
       <c r="CF106" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CG106" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -27910,12 +28226,15 @@
         <v>206.0</v>
       </c>
       <c r="CF107" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="CG107" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -28165,11 +28484,14 @@
       </c>
       <c r="CF108" t="n">
         <v>1612.0</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>1620.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -28419,11 +28741,14 @@
       </c>
       <c r="CF109" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CG109" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -28673,11 +28998,14 @@
       </c>
       <c r="CF110" t="n">
         <v>1482.0</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>1486.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -28927,11 +29255,14 @@
       </c>
       <c r="CF111" t="n">
         <v>17347.0</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>17665.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -29181,11 +29512,14 @@
       </c>
       <c r="CF112" t="n">
         <v>446.0</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>453.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -29434,12 +29768,15 @@
         <v>209.0</v>
       </c>
       <c r="CF113" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="CG113" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -29689,11 +30026,14 @@
       </c>
       <c r="CF114" t="n">
         <v>1796.0</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>1811.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -29943,11 +30283,14 @@
       </c>
       <c r="CF115" t="n">
         <v>1232.0</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>1239.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -30197,11 +30540,14 @@
       </c>
       <c r="CF116" t="n">
         <v>609.0</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>622.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -30451,11 +30797,14 @@
       </c>
       <c r="CF117" t="n">
         <v>1546.0</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>1548.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -30704,12 +31053,15 @@
         <v>19.0</v>
       </c>
       <c r="CF118" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CG118" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -30958,12 +31310,15 @@
         <v>0.0</v>
       </c>
       <c r="CF119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -31213,11 +31568,14 @@
       </c>
       <c r="CF120" t="n">
         <v>398.0</v>
+      </c>
+      <c r="CG120" t="n">
+        <v>400.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -31467,11 +31825,14 @@
       </c>
       <c r="CF121" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CG121" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -31720,12 +32081,15 @@
         <v>64.0</v>
       </c>
       <c r="CF122" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CG122" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -31975,11 +32339,14 @@
       </c>
       <c r="CF123" t="n">
         <v>113.0</v>
+      </c>
+      <c r="CG123" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -32229,11 +32596,14 @@
       </c>
       <c r="CF124" t="n">
         <v>1217.0</v>
+      </c>
+      <c r="CG124" t="n">
+        <v>1224.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -32482,12 +32852,15 @@
         <v>9.0</v>
       </c>
       <c r="CF125" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG125" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -32736,12 +33109,15 @@
         <v>0.0</v>
       </c>
       <c r="CF126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -32991,11 +33367,14 @@
       </c>
       <c r="CF127" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CG127" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -33245,11 +33624,14 @@
       </c>
       <c r="CF128" t="n">
         <v>442.0</v>
+      </c>
+      <c r="CG128" t="n">
+        <v>445.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -33499,11 +33881,14 @@
       </c>
       <c r="CF129" t="n">
         <v>1730.0</v>
+      </c>
+      <c r="CG129" t="n">
+        <v>1755.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -33753,11 +34138,14 @@
       </c>
       <c r="CF130" t="n">
         <v>589.0</v>
+      </c>
+      <c r="CG130" t="n">
+        <v>591.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -34007,11 +34395,14 @@
       </c>
       <c r="CF131" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CG131" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -34261,11 +34652,14 @@
       </c>
       <c r="CF132" t="n">
         <v>1590.0</v>
+      </c>
+      <c r="CG132" t="n">
+        <v>1609.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -34515,11 +34909,14 @@
       </c>
       <c r="CF133" t="n">
         <v>868.0</v>
+      </c>
+      <c r="CG133" t="n">
+        <v>871.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -34768,12 +35165,15 @@
         <v>14.0</v>
       </c>
       <c r="CF134" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CG134" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -35022,12 +35422,15 @@
         <v>34.0</v>
       </c>
       <c r="CF135" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CG135" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -35277,11 +35680,14 @@
       </c>
       <c r="CF136" t="n">
         <v>1322.0</v>
+      </c>
+      <c r="CG136" t="n">
+        <v>1326.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -35530,12 +35936,15 @@
         <v>33.0</v>
       </c>
       <c r="CF137" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CG137" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -35784,12 +36193,15 @@
         <v>6.0</v>
       </c>
       <c r="CF138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CG138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -36038,12 +36450,15 @@
         <v>8.0</v>
       </c>
       <c r="CF139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CG139" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -36293,11 +36708,14 @@
       </c>
       <c r="CF140" t="n">
         <v>461.0</v>
+      </c>
+      <c r="CG140" t="n">
+        <v>476.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -36546,12 +36964,15 @@
         <v>65.0</v>
       </c>
       <c r="CF141" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CG141" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -36800,12 +37221,15 @@
         <v>2696.0</v>
       </c>
       <c r="CF142" t="n">
+        <v>2696.0</v>
+      </c>
+      <c r="CG142" t="n">
         <v>2696.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -37054,12 +37478,15 @@
         <v>395.0</v>
       </c>
       <c r="CF143" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="CG143" t="n">
         <v>402.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -37309,11 +37736,14 @@
       </c>
       <c r="CF144" t="n">
         <v>104.0</v>
+      </c>
+      <c r="CG144" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -37562,12 +37992,15 @@
         <v>191.0</v>
       </c>
       <c r="CF145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="CG145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -37817,11 +38250,14 @@
       </c>
       <c r="CF146" t="n">
         <v>234.0</v>
+      </c>
+      <c r="CG146" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -38071,11 +38507,14 @@
       </c>
       <c r="CF147" t="n">
         <v>731.0</v>
+      </c>
+      <c r="CG147" t="n">
+        <v>735.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -38324,12 +38763,15 @@
         <v>226.0</v>
       </c>
       <c r="CF148" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="CG148" t="n">
         <v>226.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -38579,11 +39021,14 @@
       </c>
       <c r="CF149" t="n">
         <v>1061.0</v>
+      </c>
+      <c r="CG149" t="n">
+        <v>1084.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -38833,11 +39278,14 @@
       </c>
       <c r="CF150" t="n">
         <v>255.0</v>
+      </c>
+      <c r="CG150" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -39086,12 +39534,15 @@
         <v>18.0</v>
       </c>
       <c r="CF151" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CG151" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -39341,11 +39792,14 @@
       </c>
       <c r="CF152" t="n">
         <v>213.0</v>
+      </c>
+      <c r="CG152" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -39595,11 +40049,14 @@
       </c>
       <c r="CF153" t="n">
         <v>282.0</v>
+      </c>
+      <c r="CG153" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -39848,12 +40305,15 @@
         <v>0.0</v>
       </c>
       <c r="CF154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -40102,12 +40562,15 @@
         <v>0.0</v>
       </c>
       <c r="CF155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -40356,12 +40819,15 @@
         <v>0.0</v>
       </c>
       <c r="CF156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -40611,11 +41077,14 @@
       </c>
       <c r="CF157" t="n">
         <v>108.0</v>
+      </c>
+      <c r="CG157" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -40864,12 +41333,15 @@
         <v>0.0</v>
       </c>
       <c r="CF158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -41118,12 +41590,15 @@
         <v>14.0</v>
       </c>
       <c r="CF159" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CG159" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -41372,12 +41847,15 @@
         <v>169.0</v>
       </c>
       <c r="CF160" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="CG160" t="n">
         <v>170.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -41627,11 +42105,14 @@
       </c>
       <c r="CF161" t="n">
         <v>122.0</v>
+      </c>
+      <c r="CG161" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -41880,12 +42361,15 @@
         <v>249.0</v>
       </c>
       <c r="CF162" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="CG162" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -42134,12 +42618,15 @@
         <v>128.0</v>
       </c>
       <c r="CF163" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="CG163" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -42389,11 +42876,14 @@
       </c>
       <c r="CF164" t="n">
         <v>272.0</v>
+      </c>
+      <c r="CG164" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -42642,12 +43132,15 @@
         <v>0.0</v>
       </c>
       <c r="CF165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -42897,11 +43390,14 @@
       </c>
       <c r="CF166" t="n">
         <v>845.0</v>
+      </c>
+      <c r="CG166" t="n">
+        <v>851.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -43151,11 +43647,14 @@
       </c>
       <c r="CF167" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CG167" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -43404,12 +43903,15 @@
         <v>0.0</v>
       </c>
       <c r="CF168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -43658,12 +44160,15 @@
         <v>771.0</v>
       </c>
       <c r="CF169" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="CG169" t="n">
         <v>771.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -43913,11 +44418,14 @@
       </c>
       <c r="CF170" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CG170" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -44166,12 +44674,15 @@
         <v>0.0</v>
       </c>
       <c r="CF171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -44420,12 +44931,15 @@
         <v>255.0</v>
       </c>
       <c r="CF172" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="CG172" t="n">
         <v>262.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -44674,12 +45188,15 @@
         <v>5221.0</v>
       </c>
       <c r="CF173" t="n">
+        <v>5381.0</v>
+      </c>
+      <c r="CG173" t="n">
         <v>5381.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -44929,11 +45446,14 @@
       </c>
       <c r="CF174" t="n">
         <v>264.0</v>
+      </c>
+      <c r="CG174" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -45183,11 +45703,14 @@
       </c>
       <c r="CF175" t="n">
         <v>210.0</v>
+      </c>
+      <c r="CG175" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -45436,12 +45959,15 @@
         <v>46.0</v>
       </c>
       <c r="CF176" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CG176" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -45691,11 +46217,14 @@
       </c>
       <c r="CF177" t="n">
         <v>770.0</v>
+      </c>
+      <c r="CG177" t="n">
+        <v>788.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -45945,11 +46474,14 @@
       </c>
       <c r="CF178" t="n">
         <v>1893.0</v>
+      </c>
+      <c r="CG178" t="n">
+        <v>1906.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -46199,11 +46731,14 @@
       </c>
       <c r="CF179" t="n">
         <v>244.0</v>
+      </c>
+      <c r="CG179" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -46452,12 +46987,15 @@
         <v>0.0</v>
       </c>
       <c r="CF180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -46707,11 +47245,14 @@
       </c>
       <c r="CF181" t="n">
         <v>8914.0</v>
+      </c>
+      <c r="CG181" t="n">
+        <v>8966.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -46961,11 +47502,14 @@
       </c>
       <c r="CF182" t="n">
         <v>96.0</v>
+      </c>
+      <c r="CG182" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -47214,12 +47758,15 @@
         <v>79.0</v>
       </c>
       <c r="CF183" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CG183" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -47469,11 +48016,14 @@
       </c>
       <c r="CF184" t="n">
         <v>2627.0</v>
+      </c>
+      <c r="CG184" t="n">
+        <v>2741.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -47723,11 +48273,14 @@
       </c>
       <c r="CF185" t="n">
         <v>292.0</v>
+      </c>
+      <c r="CG185" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -47977,11 +48530,14 @@
       </c>
       <c r="CF186" t="n">
         <v>429.0</v>
+      </c>
+      <c r="CG186" t="n">
+        <v>433.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -48231,11 +48787,14 @@
       </c>
       <c r="CF187" t="n">
         <v>2077.0</v>
+      </c>
+      <c r="CG187" t="n">
+        <v>2112.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -48485,11 +49044,14 @@
       </c>
       <c r="CF188" t="n">
         <v>325.0</v>
+      </c>
+      <c r="CG188" t="n">
+        <v>326.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -48739,11 +49301,14 @@
       </c>
       <c r="CF189" t="n">
         <v>224.0</v>
+      </c>
+      <c r="CG189" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -48992,12 +49557,15 @@
         <v>1251.0</v>
       </c>
       <c r="CF190" t="n">
+        <v>1292.0</v>
+      </c>
+      <c r="CG190" t="n">
         <v>1292.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -49246,12 +49814,15 @@
         <v>0.0</v>
       </c>
       <c r="CF191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -49501,11 +50072,14 @@
       </c>
       <c r="CF192" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CG192" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -49755,11 +50329,14 @@
       </c>
       <c r="CF193" t="n">
         <v>332.0</v>
+      </c>
+      <c r="CG193" t="n">
+        <v>334.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -50008,12 +50585,15 @@
         <v>0.0</v>
       </c>
       <c r="CF194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -50263,11 +50843,14 @@
       </c>
       <c r="CF195" t="n">
         <v>170.0</v>
+      </c>
+      <c r="CG195" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -50516,12 +51099,15 @@
         <v>22.0</v>
       </c>
       <c r="CF196" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CG196" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -50771,11 +51357,14 @@
       </c>
       <c r="CF197" t="n">
         <v>211.0</v>
+      </c>
+      <c r="CG197" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -51025,11 +51614,14 @@
       </c>
       <c r="CF198" t="n">
         <v>693.0</v>
+      </c>
+      <c r="CG198" t="n">
+        <v>695.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -51279,11 +51871,14 @@
       </c>
       <c r="CF199" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CG199" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -51532,12 +52127,15 @@
         <v>3.0</v>
       </c>
       <c r="CF200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CG200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -51787,11 +52385,14 @@
       </c>
       <c r="CF201" t="n">
         <v>266.0</v>
+      </c>
+      <c r="CG201" t="n">
+        <v>271.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -52041,11 +52642,14 @@
       </c>
       <c r="CF202" t="n">
         <v>1431.0</v>
+      </c>
+      <c r="CG202" t="n">
+        <v>1457.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -52295,11 +52899,14 @@
       </c>
       <c r="CF203" t="n">
         <v>436.0</v>
+      </c>
+      <c r="CG203" t="n">
+        <v>440.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -52549,11 +53156,14 @@
       </c>
       <c r="CF204" t="n">
         <v>1328.0</v>
+      </c>
+      <c r="CG204" t="n">
+        <v>1360.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -52803,11 +53413,14 @@
       </c>
       <c r="CF205" t="n">
         <v>295.0</v>
+      </c>
+      <c r="CG205" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -53056,12 +53669,15 @@
         <v>178.0</v>
       </c>
       <c r="CF206" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CG206" t="n">
         <v>184.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -53311,11 +53927,14 @@
       </c>
       <c r="CF207" t="n">
         <v>186.0</v>
+      </c>
+      <c r="CG207" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -53565,11 +54184,14 @@
       </c>
       <c r="CF208" t="n">
         <v>805.0</v>
+      </c>
+      <c r="CG208" t="n">
+        <v>872.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -53819,11 +54441,14 @@
       </c>
       <c r="CF209" t="n">
         <v>115.0</v>
+      </c>
+      <c r="CG209" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -54072,12 +54697,15 @@
         <v>83.0</v>
       </c>
       <c r="CF210" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CG210" t="n">
         <v>83.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -54326,12 +54954,15 @@
         <v>0.0</v>
       </c>
       <c r="CF211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -54581,11 +55212,14 @@
       </c>
       <c r="CF212" t="n">
         <v>95.0</v>
+      </c>
+      <c r="CG212" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -54835,11 +55469,14 @@
       </c>
       <c r="CF213" t="n">
         <v>534.0</v>
+      </c>
+      <c r="CG213" t="n">
+        <v>545.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -55088,12 +55725,15 @@
         <v>17.0</v>
       </c>
       <c r="CF214" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CG214" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -55343,11 +55983,14 @@
       </c>
       <c r="CF215" t="n">
         <v>6937.0</v>
+      </c>
+      <c r="CG215" t="n">
+        <v>6961.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -55597,11 +56240,14 @@
       </c>
       <c r="CF216" t="n">
         <v>415.0</v>
+      </c>
+      <c r="CG216" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -55851,11 +56497,14 @@
       </c>
       <c r="CF217" t="n">
         <v>1407.0</v>
+      </c>
+      <c r="CG217" t="n">
+        <v>1430.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -56105,11 +56754,14 @@
       </c>
       <c r="CF218" t="n">
         <v>239.0</v>
+      </c>
+      <c r="CG218" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -56358,12 +57010,15 @@
         <v>54.0</v>
       </c>
       <c r="CF219" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CG219" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -56612,12 +57267,15 @@
         <v>96.0</v>
       </c>
       <c r="CF220" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CG220" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -56866,12 +57524,15 @@
         <v>162.0</v>
       </c>
       <c r="CF221" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="CG221" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -57120,12 +57781,15 @@
         <v>326.0</v>
       </c>
       <c r="CF222" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="CG222" t="n">
         <v>335.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -57375,11 +58039,14 @@
       </c>
       <c r="CF223" t="n">
         <v>27012.0</v>
+      </c>
+      <c r="CG223" t="n">
+        <v>27396.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -57629,11 +58296,14 @@
       </c>
       <c r="CF224" t="n">
         <v>7366.0</v>
+      </c>
+      <c r="CG224" t="n">
+        <v>7433.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -57883,11 +58553,14 @@
       </c>
       <c r="CF225" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CG225" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -58136,12 +58809,15 @@
         <v>0.0</v>
       </c>
       <c r="CF226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -58390,12 +59066,15 @@
         <v>22.0</v>
       </c>
       <c r="CF227" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CG227" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -58645,11 +59324,14 @@
       </c>
       <c r="CF228" t="n">
         <v>760.0</v>
+      </c>
+      <c r="CG228" t="n">
+        <v>767.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -58899,11 +59581,14 @@
       </c>
       <c r="CF229" t="n">
         <v>7390.0</v>
+      </c>
+      <c r="CG229" t="n">
+        <v>7426.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -59152,12 +59837,15 @@
         <v>0.0</v>
       </c>
       <c r="CF230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -59406,12 +60094,15 @@
         <v>140.0</v>
       </c>
       <c r="CF231" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="CG231" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -59661,11 +60352,14 @@
       </c>
       <c r="CF232" t="n">
         <v>557.0</v>
+      </c>
+      <c r="CG232" t="n">
+        <v>567.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -59915,11 +60609,14 @@
       </c>
       <c r="CF233" t="n">
         <v>1599.0</v>
+      </c>
+      <c r="CG233" t="n">
+        <v>1617.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -60169,11 +60866,14 @@
       </c>
       <c r="CF234" t="n">
         <v>234.0</v>
+      </c>
+      <c r="CG234" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -60423,11 +61123,14 @@
       </c>
       <c r="CF235" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CG235" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -60676,12 +61379,15 @@
         <v>0.0</v>
       </c>
       <c r="CF236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -60930,12 +61636,15 @@
         <v>1288.0</v>
       </c>
       <c r="CF237" t="n">
+        <v>1288.0</v>
+      </c>
+      <c r="CG237" t="n">
         <v>1288.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -61184,12 +61893,15 @@
         <v>9.0</v>
       </c>
       <c r="CF238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CG238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -61439,11 +62151,14 @@
       </c>
       <c r="CF239" t="n">
         <v>658.0</v>
+      </c>
+      <c r="CG239" t="n">
+        <v>664.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -61693,11 +62408,14 @@
       </c>
       <c r="CF240" t="n">
         <v>274.0</v>
+      </c>
+      <c r="CG240" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -61947,11 +62665,14 @@
       </c>
       <c r="CF241" t="n">
         <v>380.0</v>
+      </c>
+      <c r="CG241" t="n">
+        <v>395.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -62201,11 +62922,14 @@
       </c>
       <c r="CF242" t="n">
         <v>403.0</v>
+      </c>
+      <c r="CG242" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -62454,12 +63178,15 @@
         <v>0.0</v>
       </c>
       <c r="CF243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -62709,11 +63436,14 @@
       </c>
       <c r="CF244" t="n">
         <v>302.0</v>
+      </c>
+      <c r="CG244" t="n">
+        <v>303.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -62962,12 +63692,15 @@
         <v>39.0</v>
       </c>
       <c r="CF245" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CG245" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -63216,12 +63949,15 @@
         <v>0.0</v>
       </c>
       <c r="CF246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -63471,11 +64207,14 @@
       </c>
       <c r="CF247" t="n">
         <v>268.0</v>
+      </c>
+      <c r="CG247" t="n">
+        <v>270.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -63724,12 +64463,15 @@
         <v>138.0</v>
       </c>
       <c r="CF248" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="CG248" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -63979,11 +64721,14 @@
       </c>
       <c r="CF249" t="n">
         <v>3887.0</v>
+      </c>
+      <c r="CG249" t="n">
+        <v>3970.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -64233,11 +64978,14 @@
       </c>
       <c r="CF250" t="n">
         <v>577.0</v>
+      </c>
+      <c r="CG250" t="n">
+        <v>579.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -64487,11 +65235,14 @@
       </c>
       <c r="CF251" t="n">
         <v>171.0</v>
+      </c>
+      <c r="CG251" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -64741,11 +65492,14 @@
       </c>
       <c r="CF252" t="n">
         <v>836.0</v>
+      </c>
+      <c r="CG252" t="n">
+        <v>850.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -64995,11 +65749,14 @@
       </c>
       <c r="CF253" t="n">
         <v>1138.0</v>
+      </c>
+      <c r="CG253" t="n">
+        <v>1145.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -65248,12 +66005,15 @@
         <v>0.0</v>
       </c>
       <c r="CF254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -65503,11 +66263,14 @@
       </c>
       <c r="CF255" t="n">
         <v>181.0</v>
+      </c>
+      <c r="CG255" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -65757,11 +66520,14 @@
       </c>
       <c r="CF256" t="n">
         <v>145.0</v>
+      </c>
+      <c r="CG256" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -66011,6 +66777,9 @@
       </c>
       <c r="CF257" t="n">
         <v>81.0</v>
+      </c>
+      <c r="CG257" t="n">
+        <v>82.0</v>
       </c>
     </row>
   </sheetData>
